--- a/Scores.xlsx
+++ b/Scores.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vrddam\Desktop\ATLAS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0DC7B7C-D2F3-4FAE-93A0-08CCE0D402D8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{443FCCD8-C39B-48EE-BEFE-F06E772161AA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -418,7 +418,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
